--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Cntf-Il6ra.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Cntf-Il6ra.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.5748063333333334</v>
+        <v>0.03835166666666667</v>
       </c>
       <c r="H2">
-        <v>1.724419</v>
+        <v>0.115055</v>
       </c>
       <c r="I2">
-        <v>0.1785342934984892</v>
+        <v>0.0181239951898282</v>
       </c>
       <c r="J2">
-        <v>0.1785342934984892</v>
+        <v>0.0181239951898282</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>13.338276</v>
+        <v>0.7893693333333335</v>
       </c>
       <c r="N2">
-        <v>40.01482799999999</v>
+        <v>2.368108</v>
       </c>
       <c r="O2">
-        <v>0.80809692568033</v>
+        <v>0.1840020898203156</v>
       </c>
       <c r="P2">
-        <v>0.8080969256803301</v>
+        <v>0.1840020898203156</v>
       </c>
       <c r="Q2">
-        <v>7.666925520548</v>
+        <v>0.03027362954888889</v>
       </c>
       <c r="R2">
-        <v>69.00232968493199</v>
+        <v>0.2724626659400001</v>
       </c>
       <c r="S2">
-        <v>0.1442730137046389</v>
+        <v>0.003334852990821735</v>
       </c>
       <c r="T2">
-        <v>0.1442730137046389</v>
+        <v>0.003334852990821735</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.5748063333333334</v>
+        <v>0.03835166666666667</v>
       </c>
       <c r="H3">
-        <v>1.724419</v>
+        <v>0.115055</v>
       </c>
       <c r="I3">
-        <v>0.1785342934984892</v>
+        <v>0.0181239951898282</v>
       </c>
       <c r="J3">
-        <v>0.1785342934984892</v>
+        <v>0.0181239951898282</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>8.885514000000001</v>
       </c>
       <c r="O3">
-        <v>0.1794423943666466</v>
+        <v>0.6904048063380857</v>
       </c>
       <c r="P3">
-        <v>0.1794423943666466</v>
+        <v>0.6904048063380857</v>
       </c>
       <c r="Q3">
-        <v>1.702483240707334</v>
+        <v>0.1135914236966667</v>
       </c>
       <c r="R3">
-        <v>15.322349166366</v>
+        <v>1.02232281327</v>
       </c>
       <c r="S3">
-        <v>0.03203662110192653</v>
+        <v>0.01251289338910573</v>
       </c>
       <c r="T3">
-        <v>0.03203662110192653</v>
+        <v>0.01251289338910573</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.5748063333333334</v>
+        <v>0.03835166666666667</v>
       </c>
       <c r="H4">
-        <v>1.724419</v>
+        <v>0.115055</v>
       </c>
       <c r="I4">
-        <v>0.1785342934984892</v>
+        <v>0.0181239951898282</v>
       </c>
       <c r="J4">
-        <v>0.1785342934984892</v>
+        <v>0.0181239951898282</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.2056733333333334</v>
+        <v>0.5387946666666666</v>
       </c>
       <c r="N4">
-        <v>0.6170200000000001</v>
+        <v>1.616384</v>
       </c>
       <c r="O4">
-        <v>0.01246067995302335</v>
+        <v>0.1255931038415988</v>
       </c>
       <c r="P4">
-        <v>0.01246067995302335</v>
+        <v>0.1255931038415988</v>
       </c>
       <c r="Q4">
-        <v>0.1182223345977778</v>
+        <v>0.02066367345777778</v>
       </c>
       <c r="R4">
-        <v>1.06400101138</v>
+        <v>0.18597306112</v>
       </c>
       <c r="S4">
-        <v>0.002224658691923811</v>
+        <v>0.00227624880990073</v>
       </c>
       <c r="T4">
-        <v>0.002224658691923811</v>
+        <v>0.00227624880990073</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>2.366539</v>
       </c>
       <c r="I5">
-        <v>0.2450149113420932</v>
+        <v>0.3727881574250648</v>
       </c>
       <c r="J5">
-        <v>0.2450149113420932</v>
+        <v>0.3727881574250648</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>13.338276</v>
+        <v>0.7893693333333335</v>
       </c>
       <c r="N5">
-        <v>40.01482799999999</v>
+        <v>2.368108</v>
       </c>
       <c r="O5">
-        <v>0.80809692568033</v>
+        <v>0.1840020898203156</v>
       </c>
       <c r="P5">
-        <v>0.8080969256803301</v>
+        <v>0.1840020898203156</v>
       </c>
       <c r="Q5">
-        <v>10.521850115588</v>
+        <v>0.6226911042457779</v>
       </c>
       <c r="R5">
-        <v>94.69665104029198</v>
+        <v>5.604219938212001</v>
       </c>
       <c r="S5">
-        <v>0.1979957966013841</v>
+        <v>0.06859380002647671</v>
       </c>
       <c r="T5">
-        <v>0.1979957966013842</v>
+        <v>0.06859380002647671</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>2.366539</v>
       </c>
       <c r="I6">
-        <v>0.2450149113420932</v>
+        <v>0.3727881574250648</v>
       </c>
       <c r="J6">
-        <v>0.2450149113420932</v>
+        <v>0.3727881574250648</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>8.885514000000001</v>
       </c>
       <c r="O6">
-        <v>0.1794423943666466</v>
+        <v>0.6904048063380857</v>
       </c>
       <c r="P6">
-        <v>0.1794423943666466</v>
+        <v>0.6904048063380857</v>
       </c>
       <c r="Q6">
         <v>2.336435046227333</v>
@@ -818,10 +818,10 @@
         <v>21.027915416046</v>
       </c>
       <c r="S6">
-        <v>0.04396606234675685</v>
+        <v>0.2573747356321836</v>
       </c>
       <c r="T6">
-        <v>0.04396606234675685</v>
+        <v>0.2573747356321836</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,40 +850,40 @@
         <v>2.366539</v>
       </c>
       <c r="I7">
-        <v>0.2450149113420932</v>
+        <v>0.3727881574250648</v>
       </c>
       <c r="J7">
-        <v>0.2450149113420932</v>
+        <v>0.3727881574250648</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.2056733333333334</v>
+        <v>0.5387946666666666</v>
       </c>
       <c r="N7">
-        <v>0.6170200000000001</v>
+        <v>1.616384</v>
       </c>
       <c r="O7">
-        <v>0.01246067995302335</v>
+        <v>0.1255931038415988</v>
       </c>
       <c r="P7">
-        <v>0.01246067995302335</v>
+        <v>0.1255931038415988</v>
       </c>
       <c r="Q7">
-        <v>0.1622446548644445</v>
+        <v>0.4250261972195555</v>
       </c>
       <c r="R7">
-        <v>1.46020189378</v>
+        <v>3.825235774976</v>
       </c>
       <c r="S7">
-        <v>0.003053052393952214</v>
+        <v>0.04681962176640445</v>
       </c>
       <c r="T7">
-        <v>0.003053052393952214</v>
+        <v>0.04681962176640445</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.855932333333334</v>
+        <v>1.288873333333333</v>
       </c>
       <c r="H8">
-        <v>5.567797000000001</v>
+        <v>3.86662</v>
       </c>
       <c r="I8">
-        <v>0.5764507951594176</v>
+        <v>0.6090878473851071</v>
       </c>
       <c r="J8">
-        <v>0.5764507951594176</v>
+        <v>0.609087847385107</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>13.338276</v>
+        <v>0.7893693333333335</v>
       </c>
       <c r="N8">
-        <v>40.01482799999999</v>
+        <v>2.368108</v>
       </c>
       <c r="O8">
-        <v>0.80809692568033</v>
+        <v>0.1840020898203156</v>
       </c>
       <c r="P8">
-        <v>0.8080969256803301</v>
+        <v>0.1840020898203156</v>
       </c>
       <c r="Q8">
-        <v>24.754937699324</v>
+        <v>1.017397083884445</v>
       </c>
       <c r="R8">
-        <v>222.794439293916</v>
+        <v>9.15657375496</v>
       </c>
       <c r="S8">
-        <v>0.465828115374307</v>
+        <v>0.1120734368030172</v>
       </c>
       <c r="T8">
-        <v>0.465828115374307</v>
+        <v>0.1120734368030171</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.855932333333334</v>
+        <v>1.288873333333333</v>
       </c>
       <c r="H9">
-        <v>5.567797000000001</v>
+        <v>3.86662</v>
       </c>
       <c r="I9">
-        <v>0.5764507951594176</v>
+        <v>0.6090878473851071</v>
       </c>
       <c r="J9">
-        <v>0.5764507951594176</v>
+        <v>0.609087847385107</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>8.885514000000001</v>
       </c>
       <c r="O9">
-        <v>0.1794423943666466</v>
+        <v>0.6904048063380857</v>
       </c>
       <c r="P9">
-        <v>0.1794423943666466</v>
+        <v>0.6904048063380857</v>
       </c>
       <c r="Q9">
-        <v>5.496970910295334</v>
+        <v>3.817434015853333</v>
       </c>
       <c r="R9">
-        <v>49.47273819265801</v>
+        <v>34.35690614268</v>
       </c>
       <c r="S9">
-        <v>0.1034397109179632</v>
+        <v>0.4205171773167963</v>
       </c>
       <c r="T9">
-        <v>0.1034397109179632</v>
+        <v>0.4205171773167963</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,46 +1030,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.855932333333334</v>
+        <v>1.288873333333333</v>
       </c>
       <c r="H10">
-        <v>5.567797000000001</v>
+        <v>3.86662</v>
       </c>
       <c r="I10">
-        <v>0.5764507951594176</v>
+        <v>0.6090878473851071</v>
       </c>
       <c r="J10">
-        <v>0.5764507951594176</v>
+        <v>0.609087847385107</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.2056733333333334</v>
+        <v>0.5387946666666666</v>
       </c>
       <c r="N10">
-        <v>0.6170200000000001</v>
+        <v>1.616384</v>
       </c>
       <c r="O10">
-        <v>0.01246067995302335</v>
+        <v>0.1255931038415988</v>
       </c>
       <c r="P10">
-        <v>0.01246067995302335</v>
+        <v>0.1255931038415988</v>
       </c>
       <c r="Q10">
-        <v>0.3817157894377779</v>
+        <v>0.6944380780088889</v>
       </c>
       <c r="R10">
-        <v>3.435442104940001</v>
+        <v>6.249942702079998</v>
       </c>
       <c r="S10">
-        <v>0.007182968867147323</v>
+        <v>0.07649723326529366</v>
       </c>
       <c r="T10">
-        <v>0.007182968867147324</v>
+        <v>0.07649723326529365</v>
       </c>
     </row>
   </sheetData>
